--- a/Configs/ServerConfig/Excel/Server/SceneConfig.xlsx
+++ b/Configs/ServerConfig/Excel/Server/SceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\TE-Fantasy\Configs\ServerConfig\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0EE65-381D-9A46-BF76-3AF2421B0D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEE8CCF-2D4F-47CA-80EF-37A0B7256328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>由于改表格使用了公式。</t>
         </r>
@@ -61,7 +62,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -72,7 +74,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>所以不要改动列的位置。</t>
         </r>
@@ -81,7 +84,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -96,7 +100,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -106,7 +111,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>计算规则</t>
         </r>
@@ -116,7 +122,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -127,7 +134,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -137,7 +145,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -147,7 +156,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -157,7 +167,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>不能小于当前</t>
         </r>
@@ -167,7 +178,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfigId * 1000 +1</t>
         </r>
@@ -177,7 +189,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -187,7 +200,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -198,7 +212,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2:  Id</t>
         </r>
@@ -208,7 +223,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>不能大于当前</t>
         </r>
@@ -218,7 +234,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfigId * 1000 +255</t>
         </r>
@@ -228,7 +245,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -238,7 +256,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -249,7 +268,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -259,7 +279,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -269,7 +290,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -279,7 +301,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>必须在</t>
         </r>
@@ -289,7 +312,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -299,7 +323,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>和</t>
         </r>
@@ -309,7 +334,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -319,7 +345,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>条件之间。</t>
         </r>
@@ -333,7 +360,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ProcessConfig</t>
         </r>
@@ -343,7 +371,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表的</t>
         </r>
@@ -353,7 +382,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Id
 </t>
@@ -364,7 +394,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>一个进程下有多少个</t>
         </r>
@@ -374,7 +405,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -388,7 +420,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>关联</t>
         </r>
@@ -398,7 +431,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfig</t>
         </r>
@@ -408,7 +442,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表（</t>
         </r>
@@ -418,7 +453,8 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>不能为空）</t>
         </r>
@@ -428,7 +464,8 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -439,7 +476,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用于表示这个</t>
         </r>
@@ -449,7 +487,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -459,7 +498,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>属于哪个世界，</t>
         </r>
@@ -469,7 +509,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -479,7 +520,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>里的世界可以理解为游戏的一个区。</t>
         </r>
@@ -489,7 +531,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -500,7 +543,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
         </r>
@@ -514,7 +558,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用于配置</t>
         </r>
@@ -524,7 +569,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -534,7 +580,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在框架中运行的方式：</t>
         </r>
@@ -544,7 +591,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -566,7 +614,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>:</t>
         </r>
@@ -576,7 +625,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>设置</t>
         </r>
@@ -586,7 +636,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -596,7 +647,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在当前进程的主线程中运行、如果多个</t>
         </r>
@@ -606,7 +658,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -616,7 +669,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在同一个</t>
         </r>
@@ -626,7 +680,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ProcessConfigId</t>
         </r>
@@ -636,7 +691,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>下，表示这些</t>
         </r>
@@ -646,7 +702,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -656,7 +713,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
         </r>
@@ -666,7 +724,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Process</t>
         </r>
@@ -676,7 +735,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>）分别对应多个</t>
         </r>
@@ -686,7 +746,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -696,7 +757,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>，这样设置就是多进程单线程的配置方法。</t>
         </r>
@@ -706,7 +768,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -985,7 +1048,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示这个</t>
         </r>
@@ -995,7 +1059,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1005,7 +1070,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是什么类型，这样可以在框架中的</t>
         </r>
@@ -1015,7 +1081,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>OnSceneCreate</t>
         </r>
@@ -1025,7 +1092,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>的事件中根据</t>
         </r>
@@ -1035,7 +1103,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1045,7 +1114,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>来添加不同的组件，而达到不同</t>
         </r>
@@ -1055,7 +1125,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1065,7 +1136,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>功能不一样的效果。</t>
         </r>
@@ -1075,7 +1147,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1086,7 +1159,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>比如鉴权</t>
         </r>
@@ -1096,7 +1170,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1106,7 +1181,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>和聊天</t>
         </r>
@@ -1116,7 +1192,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1126,7 +1203,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>、通过这个就可以知道当前这个</t>
         </r>
@@ -1136,7 +1214,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1146,7 +1225,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
         </r>
@@ -1156,7 +1236,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1166,7 +1247,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>功能了。</t>
         </r>
@@ -1176,7 +1258,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1187,7 +1270,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>添加</t>
         </r>
@@ -1197,7 +1281,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1207,7 +1292,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>需要在</t>
         </r>
@@ -1217,7 +1303,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeConfig</t>
         </r>
@@ -1227,7 +1314,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>工作簿里增加，当前表格下面的</t>
         </r>
@@ -1272,7 +1360,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用于表示当前</t>
         </r>
@@ -1282,7 +1371,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1292,7 +1382,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>对客户端的网络协议。</t>
         </r>
@@ -1302,7 +1393,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1313,7 +1405,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -1323,7 +1416,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是以</t>
         </r>
@@ -1333,7 +1427,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1343,7 +1438,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>为单位的，所以网络协议是在</t>
         </r>
@@ -1353,7 +1449,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1363,7 +1460,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>里设置。</t>
         </r>
@@ -1373,7 +1471,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1384,7 +1483,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>比如做一个注册的</t>
         </r>
@@ -1394,7 +1494,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1404,7 +1505,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
         </r>
@@ -1414,7 +1516,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1425,7 +1528,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>外网通讯的地址是在</t>
         </r>
@@ -1435,7 +1539,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>MachineConfig</t>
         </r>
@@ -1445,7 +1550,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>里设置的、因为这个</t>
         </r>
@@ -1455,7 +1561,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1465,7 +1572,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是关联到</t>
         </r>
@@ -1475,7 +1583,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ServerConfig</t>
         </r>
@@ -1485,7 +1594,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>下的，框架会自动根据</t>
         </r>
@@ -1543,7 +1653,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示监听的外网连接的端口号，这里不填写或填</t>
         </r>
@@ -1553,7 +1664,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1563,7 +1675,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接收到外网发送的消息</t>
         </r>
@@ -1577,7 +1690,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示监听的内部网络连接的端口号，这里不填写或填</t>
         </r>
@@ -1587,7 +1701,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1597,7 +1712,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接受内部网络发送的消息</t>
         </r>
@@ -1611,7 +1727,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>根据</t>
         </r>
@@ -1621,7 +1738,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1631,7 +1749,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>列的值使用公式自动生成的，不需要手动修改。如果要修改在</t>
         </r>
@@ -1641,7 +1760,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1651,7 +1771,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>列选择就可以了</t>
         </r>
@@ -1662,7 +1783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1863,6 +1984,16 @@
   <si>
     <t>Chat服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>鉴权服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
   </si>
 </sst>
 </file>
@@ -1923,14 +2054,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1967,7 +2100,8 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2100,7 +2234,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2155,7 +2289,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2210,7 +2344,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>736599</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2228,6 +2362,116 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8991599" y="3547533"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C316C04-28DE-436D-A235-E8532E72514E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8997372" y="3723409"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B86EA79-8A22-429E-B60E-6331D602A1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8955313" y="3701143"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2523,27 +2767,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
     <col min="6" max="6" width="162.5" customWidth="1"/>
-    <col min="7" max="7" width="84.33203125" customWidth="1"/>
+    <col min="7" max="7" width="84.375" customWidth="1"/>
     <col min="8" max="8" width="120" customWidth="1"/>
     <col min="9" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
+    <col min="12" max="12" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="80" customHeight="1">
+    <row r="1" spans="1:12" ht="80.099999999999994" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2840,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="17.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2631,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="17.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="100" customHeight="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2716,7 +2960,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -2748,9 +2992,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="B8" s="6">
-        <f>B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="7">
@@ -2772,7 +3015,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>20000</v>
+        <v>20010</v>
       </c>
       <c r="J8" s="7">
         <v>11002</v>
@@ -2785,9 +3028,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="B9" s="6">
-        <f>B8+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="7">
@@ -2803,24 +3045,26 @@
         <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20011</v>
+      </c>
       <c r="J9" s="7">
         <v>11003</v>
       </c>
       <c r="K9" s="7">
-        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G9,SceneTypeConfig!$B$3:$B$90000,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="B10" s="6">
-        <f>B9+1</f>
         <v>4</v>
       </c>
       <c r="C10" s="7">
@@ -2836,29 +3080,133 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20012</v>
+      </c>
       <c r="J10" s="7">
         <v>11004</v>
       </c>
       <c r="K10" s="7">
         <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G10,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
+        <v>11005</v>
+      </c>
+      <c r="K11" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G11,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>11006</v>
+      </c>
+      <c r="K12" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G12,SceneTypeConfig!$B$3:$B$90000,0))</f>
         <v>8</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="7">
+        <v>20000</v>
+      </c>
+      <c r="J13" s="7">
+        <v>11007</v>
+      </c>
+      <c r="K13" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G13,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H13" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F13" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2873,7 +3221,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G10</xm:sqref>
+          <xm:sqref>G7:G13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2889,15 +3237,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2908,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2919,7 +3267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2930,7 +3278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2941,7 +3289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>3</v>
@@ -2953,7 +3301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A6" s="7">
         <f t="shared" ref="A6:A10" si="0">A5+1</f>
         <v>4</v>
@@ -2965,7 +3313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2977,7 +3325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2989,7 +3337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3001,7 +3349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="15.75">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>

--- a/Configs/ServerConfig/Excel/Server/SceneConfig.xlsx
+++ b/Configs/ServerConfig/Excel/Server/SceneConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\TE-Fantasy\Configs\ServerConfig\Excel\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity项目\TE-Fantasy\Configs\ServerConfig\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEE8CCF-2D4F-47CA-80EF-37A0B7256328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EEE5B7-1AB9-462D-9958-5FB87F3D2C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -1783,7 +1783,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1994,6 +1994,9 @@
   </si>
   <si>
     <t>Gate</t>
+  </si>
+  <si>
+    <t>WebSocket</t>
   </si>
 </sst>
 </file>
@@ -2505,6 +2508,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02B57E6-D933-4155-816D-DC22C9925470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982528" y="4290786"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2767,27 +2825,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.08203125" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="5" max="5" width="46.58203125" customWidth="1"/>
     <col min="6" max="6" width="162.5" customWidth="1"/>
-    <col min="7" max="7" width="84.375" customWidth="1"/>
+    <col min="7" max="7" width="84.33203125" customWidth="1"/>
     <col min="8" max="8" width="120" customWidth="1"/>
     <col min="9" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="21.58203125" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="80.099999999999994" customHeight="1">
+    <row r="1" spans="1:12" ht="80.150000000000006" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2898,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="17.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="16.5">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2875,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="17.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="16.5">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +2968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2945,7 +3003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="99.95" customHeight="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="100" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2960,7 +3018,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -2992,7 +3050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B8" s="6">
         <v>2</v>
       </c>
@@ -3028,7 +3086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B9" s="6">
         <v>3</v>
       </c>
@@ -3063,7 +3121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B10" s="6">
         <v>4</v>
       </c>
@@ -3083,7 +3141,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
         <v>20012</v>
@@ -3099,7 +3157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B11" s="6">
         <v>5</v>
       </c>
@@ -3131,7 +3189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B12" s="6">
         <v>6</v>
       </c>
@@ -3163,7 +3221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="15.5">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -3196,6 +3254,42 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="15.5">
+      <c r="B14" s="6">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20001</v>
+      </c>
+      <c r="J14" s="7">
+        <v>11008</v>
+      </c>
+      <c r="K14" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G14,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3203,10 +3297,10 @@
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H13" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F13" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F14" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3221,7 +3315,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G13</xm:sqref>
+          <xm:sqref>G7:G14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3237,15 +3331,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="21.08203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3256,7 +3350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3267,7 +3361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3278,7 +3372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3289,7 +3383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>3</v>
@@ -3301,7 +3395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A6" s="7">
         <f t="shared" ref="A6:A10" si="0">A5+1</f>
         <v>4</v>
@@ -3313,7 +3407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3325,7 +3419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3337,7 +3431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3349,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="15.75">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
